--- a/Antonio-Feed/Wiring Harnesses/Feed/Control Board to Temp Sensors Cable (green, black, yellow, white)/List of materials (temp).xlsx
+++ b/Antonio-Feed/Wiring Harnesses/Feed/Control Board to Temp Sensors Cable (green, black, yellow, white)/List of materials (temp).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahschoultz/Documents/GitHub/Front-Page/Antonio-Feed/Wiring Harnesses/Feed/Control Board to Temp Sensors Cable (green, black, yellow, white)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/Wiring Harness Directions/Control Board to Temp Sensors Cable (green, black, yellow, white)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0607ED0-9A07-6549-9B85-97E1F03752E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5282BFCB-DFDA-3345-8659-581A4A9AD14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="1560" windowWidth="16560" windowHeight="13420" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>Material</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Order Number of Distributor</t>
   </si>
   <si>
-    <t>Shrink tube</t>
-  </si>
-  <si>
     <t>Metal braid</t>
   </si>
   <si>
@@ -238,23 +235,91 @@
   </si>
   <si>
     <t>Measuring lengths of materials</t>
+  </si>
+  <si>
+    <t>1/8 metal braid</t>
+  </si>
+  <si>
+    <t>Glenair</t>
+  </si>
+  <si>
+    <t>100-001A125</t>
+  </si>
+  <si>
+    <t>654-100001A125</t>
+  </si>
+  <si>
+    <t>TE Connectivity / Raychem</t>
+  </si>
+  <si>
+    <t>TAT-125-3/16-0-STK</t>
+  </si>
+  <si>
+    <t>650-TAT125316</t>
+  </si>
+  <si>
+    <t>4in</t>
+  </si>
+  <si>
+    <t>4.5in</t>
+  </si>
+  <si>
+    <t>6.4mm in adehsive shrink tube</t>
+  </si>
+  <si>
+    <t>4.8mm adhesive shrink tube</t>
+  </si>
+  <si>
+    <t>TAT-125-1/4-0-STK</t>
+  </si>
+  <si>
+    <t>650-TAT125014</t>
+  </si>
+  <si>
+    <t>105in</t>
+  </si>
+  <si>
+    <t>Black 24 awg</t>
+  </si>
+  <si>
+    <t>Ground wire</t>
+  </si>
+  <si>
+    <t>6712 BK005</t>
+  </si>
+  <si>
+    <t>602-6712-100-02</t>
+  </si>
+  <si>
+    <t>12in</t>
+  </si>
+  <si>
+    <t>62.75in</t>
+  </si>
+  <si>
+    <t>62in</t>
+  </si>
+  <si>
+    <t>Portable vise</t>
+  </si>
+  <si>
+    <t>Holding the feed through connectors</t>
+  </si>
+  <si>
+    <t>T insertion tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserting the wires into the feed through connectors </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -280,13 +345,6 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -308,19 +366,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -637,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BA75E2-A133-C247-9618-E9CB2A5F5006}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:M3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -656,16 +712,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -677,285 +733,380 @@
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" t="s">
         <v>58</v>
       </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="M12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="G13" t="s">
         <v>44</v>
       </c>
-      <c r="F12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="L13" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="A14" s="4"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="L14" t="s">
+        <v>90</v>
+      </c>
+      <c r="M14" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="A15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Antonio-Feed/Wiring Harnesses/Feed/Control Board to Temp Sensors Cable (green, black, yellow, white)/List of materials (temp).xlsx
+++ b/Antonio-Feed/Wiring Harnesses/Feed/Control Board to Temp Sensors Cable (green, black, yellow, white)/List of materials (temp).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/Wiring Harness Directions/Control Board to Temp Sensors Cable (green, black, yellow, white)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/GitHub/Front-Page/Antonio-Feed/Wiring Harnesses/Feed/Control Board to Temp Sensors Cable (green, black, yellow, white)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5282BFCB-DFDA-3345-8659-581A4A9AD14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1C0A7F-839D-CE45-B999-B8946FE65290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="1560" windowWidth="16560" windowHeight="13420" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
+    <workbookView xWindow="6700" yWindow="2140" windowWidth="26360" windowHeight="14620" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -186,30 +186,6 @@
     <t>ALPHA WIRE</t>
   </si>
   <si>
-    <t>6710 YL005</t>
-  </si>
-  <si>
-    <t>602-6710-100-05</t>
-  </si>
-  <si>
-    <t>6710 WH005</t>
-  </si>
-  <si>
-    <t>602-6710-100-01</t>
-  </si>
-  <si>
-    <t>6710 BK005</t>
-  </si>
-  <si>
-    <t>602-6710-100-02</t>
-  </si>
-  <si>
-    <t>6710 GR005</t>
-  </si>
-  <si>
-    <t>602-6710-100-04</t>
-  </si>
-  <si>
     <t>KK 254 crimper</t>
   </si>
   <si>
@@ -285,12 +261,6 @@
     <t>Ground wire</t>
   </si>
   <si>
-    <t>6712 BK005</t>
-  </si>
-  <si>
-    <t>602-6712-100-02</t>
-  </si>
-  <si>
     <t>12in</t>
   </si>
   <si>
@@ -310,6 +280,36 @@
   </si>
   <si>
     <t xml:space="preserve">Inserting the wires into the feed through connectors </t>
+  </si>
+  <si>
+    <t>6710 GR001</t>
+  </si>
+  <si>
+    <t>602-6710-1000-04</t>
+  </si>
+  <si>
+    <t>6710 BK001</t>
+  </si>
+  <si>
+    <t>602-6710-1000-02</t>
+  </si>
+  <si>
+    <t>6710 WH001</t>
+  </si>
+  <si>
+    <t>602-6710-1000-01</t>
+  </si>
+  <si>
+    <t>6710 YL001</t>
+  </si>
+  <si>
+    <t>602-6710-1000-05</t>
+  </si>
+  <si>
+    <t>6712 BK001</t>
+  </si>
+  <si>
+    <t>602-6712-1000-02</t>
   </si>
 </sst>
 </file>
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BA75E2-A133-C247-9618-E9CB2A5F5006}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -748,19 +748,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>57</v>
+      <c r="G2" t="s">
+        <v>83</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
@@ -775,25 +775,25 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>55</v>
+      <c r="G3" t="s">
+        <v>85</v>
       </c>
       <c r="L3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -804,19 +804,19 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>53</v>
+      <c r="G4" t="s">
+        <v>87</v>
       </c>
       <c r="L4" t="s">
         <v>19</v>
@@ -831,19 +831,19 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>51</v>
+      <c r="G5" t="s">
+        <v>89</v>
       </c>
       <c r="L5" t="s">
         <v>21</v>
@@ -854,25 +854,25 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
         <v>23</v>
@@ -883,54 +883,54 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="M7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="L8" t="s">
         <v>25</v>
@@ -941,25 +941,25 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L9" t="s">
         <v>27</v>
@@ -970,25 +970,25 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="L10" t="s">
         <v>47</v>
@@ -1049,7 +1049,7 @@
         <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M12" t="s">
         <v>37</v>
@@ -1078,10 +1078,10 @@
         <v>44</v>
       </c>
       <c r="L13" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="M13" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1090,10 +1090,10 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="L14" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M14" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
